--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_252__Reeval_LHS_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_252__Reeval_LHS_Modell_1.2.xlsx
@@ -5873,10 +5873,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>47.64479827880859</c:v>
+                  <c:v>47.64480209350586</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.04655075073242</c:v>
+                  <c:v>19.04654121398926</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>53.61080932617188</c:v>
@@ -5885,16 +5885,16 @@
                   <c:v>53.61080932617188</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56.5164909362793</c:v>
+                  <c:v>56.51649856567383</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.72136688232422</c:v>
+                  <c:v>23.72137641906738</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>77.88310241699219</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.7943229675293</c:v>
+                  <c:v>31.79431915283203</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>53.61080932617188</c:v>
@@ -5915,10 +5915,10 @@
                   <c:v>90.66234588623047</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>62.72687149047852</c:v>
+                  <c:v>62.72687911987305</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>69.68526458740234</c:v>
+                  <c:v>69.68525695800781</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>53.61080932617188</c:v>
@@ -5927,31 +5927,31 @@
                   <c:v>53.61080932617188</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38.08092880249023</c:v>
+                  <c:v>38.0809211730957</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>60.95700454711914</c:v>
+                  <c:v>60.95700073242188</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>82.98387908935547</c:v>
+                  <c:v>82.98386383056641</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>53.61080932617188</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>85.59095001220703</c:v>
+                  <c:v>85.5909423828125</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>68.2130126953125</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>53.74064636230469</c:v>
+                  <c:v>53.74063491821289</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>56.98352432250977</c:v>
+                  <c:v>56.9835205078125</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>87.29531860351562</c:v>
+                  <c:v>87.29532623291016</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>53.61080932617188</c:v>
@@ -5975,7 +5975,7 @@
                   <c:v>5.06708288192749</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>16.01618003845215</c:v>
+                  <c:v>16.01618576049805</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>8.790316581726074</c:v>
@@ -6008,13 +6008,13 @@
                   <c:v>55.07541275024414</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>35.73421859741211</c:v>
+                  <c:v>35.73421096801758</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>26.36954116821289</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>20.86480522155762</c:v>
+                  <c:v>20.86479949951172</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>61.98111343383789</c:v>
@@ -6029,7 +6029,7 @@
                   <c:v>53.61080932617188</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>84.01751708984375</c:v>
+                  <c:v>84.01753234863281</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>53.61080932617188</c:v>
@@ -6038,7 +6038,7 @@
                   <c:v>87.55717468261719</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>67.47515106201172</c:v>
+                  <c:v>67.47514343261719</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>53.61080932617188</c:v>
@@ -6092,7 +6092,7 @@
                   <c:v>45.40839767456055</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>81.47824859619141</c:v>
+                  <c:v>81.47826385498047</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>53.61080932617188</c:v>
@@ -6113,7 +6113,7 @@
                   <c:v>68.889404296875</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>34.80449676513672</c:v>
+                  <c:v>34.80450057983398</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>53.61080932617188</c:v>
@@ -6125,16 +6125,16 @@
                   <c:v>82.57782745361328</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>41.82600784301758</c:v>
+                  <c:v>41.82601165771484</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>64.03263092041016</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>37.13470458984375</c:v>
+                  <c:v>37.13468933105469</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.73094916343689</c:v>
+                  <c:v>3.730955123901367</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>28.93690872192383</c:v>
@@ -6155,7 +6155,7 @@
                   <c:v>53.61080932617188</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>43.87189865112305</c:v>
+                  <c:v>43.87189102172852</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>48.84911346435547</c:v>
@@ -6164,7 +6164,7 @@
                   <c:v>53.61080932617188</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>47.14462280273438</c:v>
+                  <c:v>47.14461898803711</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6859,7 +6859,7 @@
         <v>80.4158</v>
       </c>
       <c r="F2">
-        <v>47.64479827880859</v>
+        <v>47.64480209350586</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6891,7 +6891,7 @@
         <v>81.04689999999999</v>
       </c>
       <c r="F3">
-        <v>19.04655075073242</v>
+        <v>19.04654121398926</v>
       </c>
       <c r="G3">
         <v>123</v>
@@ -6987,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>56.5164909362793</v>
+        <v>56.51649856567383</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>23.72136688232422</v>
+        <v>23.72137641906738</v>
       </c>
       <c r="G7">
         <v>123</v>
@@ -7071,7 +7071,7 @@
         <v>70.2401</v>
       </c>
       <c r="F9">
-        <v>31.7943229675293</v>
+        <v>31.79431915283203</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>62.72687149047852</v>
+        <v>62.72687911987305</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>34.5547</v>
       </c>
       <c r="F17">
-        <v>69.68526458740234</v>
+        <v>69.68525695800781</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>94.2979</v>
       </c>
       <c r="F20">
-        <v>38.08092880249023</v>
+        <v>38.0809211730957</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>60.95700454711914</v>
+        <v>60.95700073242188</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>98.35980000000001</v>
       </c>
       <c r="F22">
-        <v>82.98387908935547</v>
+        <v>82.98386383056641</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>48.1493</v>
       </c>
       <c r="F24">
-        <v>85.59095001220703</v>
+        <v>85.5909423828125</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>98.4127</v>
       </c>
       <c r="F26">
-        <v>53.74064636230469</v>
+        <v>53.74063491821289</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>97.9389</v>
       </c>
       <c r="F27">
-        <v>56.98352432250977</v>
+        <v>56.9835205078125</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>90.157</v>
       </c>
       <c r="F28">
-        <v>87.29531860351562</v>
+        <v>87.29532623291016</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>16.01618003845215</v>
+        <v>16.01618576049805</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>35.73421859741211</v>
+        <v>35.73421096801758</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>91.9205</v>
       </c>
       <c r="F49">
-        <v>20.86480522155762</v>
+        <v>20.86479949951172</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>97.46850000000001</v>
       </c>
       <c r="F54">
-        <v>84.01751708984375</v>
+        <v>84.01753234863281</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>67.7923</v>
       </c>
       <c r="F57">
-        <v>67.47515106201172</v>
+        <v>67.47514343261719</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>89.6328</v>
       </c>
       <c r="F75">
-        <v>81.47824859619141</v>
+        <v>81.47826385498047</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>97.7243</v>
       </c>
       <c r="F82">
-        <v>34.80449676513672</v>
+        <v>34.80450057983398</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>41.82600784301758</v>
+        <v>41.82601165771484</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>37.13470458984375</v>
+        <v>37.13468933105469</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>94.4674</v>
       </c>
       <c r="F89">
-        <v>3.73094916343689</v>
+        <v>3.730955123901367</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>40.7372</v>
       </c>
       <c r="F96">
-        <v>43.87189865112305</v>
+        <v>43.87189102172852</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>83.20180000000001</v>
       </c>
       <c r="F99">
-        <v>47.14462280273438</v>
+        <v>47.14461898803711</v>
       </c>
     </row>
     <row r="100" spans="1:6">
